--- a/medicine/Enfance/Jean_Ingelow/Jean_Ingelow.xlsx
+++ b/medicine/Enfance/Jean_Ingelow/Jean_Ingelow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Ingelow, née le 17 mars 1820 à Boston dans le comté de Lincolnshire, ville du Royaume-Uni de Grande-Bretagne et d'Irlande et morte le 20 juillet 1897 à Londres est une romancière, nouvelliste et poète britannique connue également pour ses livres à destination de la jeunesse et pour ses romans et nouvelles relevant du genre fantastique et sous son nom de plume Orris, elle est une des figures de la Littérature victorienne.
 </t>
@@ -513,12 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse  et formation
-Jean Ingelow est l'aînée des dix enfants de William Ingelow (1794-1855), un banquier et un armateur de la marine marchande britannique. et de Jean Kilgour Ingelow (1798-1876) issue de la gentry écossaise. Elle est née le 17 mars 1820 à Boston, une ville datant du haut moyen-âge, à proximité de la mer, ville avec de nombreux bâtiments historiques. C'est dans ce cadre que la jeune Jean Ingelow passe sa prime enfance[1],[2],[3],[4].
-En 1825, une crise financière éclate, entraînant la faillite de près d'une centaine de banques. En janvier 1826, c'est au tour de la banque de William Ingelow de faire faillite, pour honorer ses créanciers, il est contraint de vendre sa résidence principale de Boston et son cottage. William Ingelow et sa famille  quittent Boston pour s'installer dans un premier temps à Ipswich dans le comté de Suffolk puis enfin à Londres[1],[2],[3].
-Jean Ingelow suit sa scolarité à la maison, c'est sa mère et sa tante qui se chargent de son éducation ; sa mère, fière de ses origines celtiques lui rappelle régulièrement qu'est écossaise  [1],[2],[5].
-Jean Ingelow, dès son enfance est bercée par les histoires que lui narre sa mère, telles que celles des Vikings ou du chirurgien George Bass qui avec Matthew Flinders navigua jusqu'en Australie et fit le tour de la Tasmanie prouvant ainsi qu'il s'agissait bien d'une île[5]. 
-Jean Ingelow se passionne également pour les personnalités du Lincolnshire comme le physicien et astronome Isaac Newton, Thomas Sutton, fondateur de l'hospice dit la Chartreuse de Londres et de l'école Charterhouse School, du théologien Étienne Langton qui le premier a divisé la Bible en chapitres, rendant ainsi sa lecture plus aisée[5]. 
+          <t>Jeunesse  et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Ingelow est l'aînée des dix enfants de William Ingelow (1794-1855), un banquier et un armateur de la marine marchande britannique. et de Jean Kilgour Ingelow (1798-1876) issue de la gentry écossaise. Elle est née le 17 mars 1820 à Boston, une ville datant du haut moyen-âge, à proximité de la mer, ville avec de nombreux bâtiments historiques. C'est dans ce cadre que la jeune Jean Ingelow passe sa prime enfance.
+En 1825, une crise financière éclate, entraînant la faillite de près d'une centaine de banques. En janvier 1826, c'est au tour de la banque de William Ingelow de faire faillite, pour honorer ses créanciers, il est contraint de vendre sa résidence principale de Boston et son cottage. William Ingelow et sa famille  quittent Boston pour s'installer dans un premier temps à Ipswich dans le comté de Suffolk puis enfin à Londres.
+Jean Ingelow suit sa scolarité à la maison, c'est sa mère et sa tante qui se chargent de son éducation ; sa mère, fière de ses origines celtiques lui rappelle régulièrement qu'est écossaise  .
+Jean Ingelow, dès son enfance est bercée par les histoires que lui narre sa mère, telles que celles des Vikings ou du chirurgien George Bass qui avec Matthew Flinders navigua jusqu'en Australie et fit le tour de la Tasmanie prouvant ainsi qu'il s'agissait bien d'une île. 
+Jean Ingelow se passionne également pour les personnalités du Lincolnshire comme le physicien et astronome Isaac Newton, Thomas Sutton, fondateur de l'hospice dit la Chartreuse de Londres et de l'école Charterhouse School, du théologien Étienne Langton qui le premier a divisé la Bible en chapitres, rendant ainsi sa lecture plus aisée. 
 </t>
         </is>
       </c>
@@ -547,30 +564,169 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Jean Ingelow, sur Wikiquote
-Romans
-Allerton and Dreux : Or, the War of Opinion, vol. 1, Londres, Wertheim &amp; Macintosh (réimpr. 2010, 2012) (1re éd. 1851), 464 p. (ISBN 9781357341909, OCLC 557551490, lire en ligne),
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean_Ingelow</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ingelow</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Allerton and Dreux : Or, the War of Opinion, vol. 1, Londres, Wertheim &amp; Macintosh (réimpr. 2010, 2012) (1re éd. 1851), 464 p. (ISBN 9781357341909, OCLC 557551490, lire en ligne),
 Allerton and Dreux : Or, the War of Opinion, vol. 2, Londres, Wertheim &amp; Macintosh (réimpr. 2010, 2012, 2016) (1re éd. 1851), 433 p. (ISBN 9781358340574, OCLC 557551490, lire en ligne),
 Fated to Be Free, Londres, Tinsley Brothers (réimpr. 1887, ... 2007, 2012) (1re éd. 1875), 520 p. (OCLC 647131111, lire en ligne),
 Sarah de Berenger : A Novel, Boston, Roberts Brothers (réimpr. 2009, 2015) (1re éd. 1879), 430 p. (ISBN 9781347050590, OCLC 4358261, lire en ligne),
 Don John, Boston, Roberts Brothers (réimpr. 2009, 2012) (1re éd. 1881), 413 p. (OCLC 561753539, lire en ligne),
-Quite Another Story, New York, Lovell Company (réimpr. 2016, 2019) (1re éd. 1890), 257 p. (ISBN 9780526696949, OCLC 17400012, lire en ligne),
-Recueil de nouvelles
-Stories Told to a Child  (ill. J. Lawson), Londres, Alexander Strahan (réimpr. 1867,...2009, 2017, 2023) (1re éd. 1865), 461 p. (ISBN 9781019664681, OCLC 905308363, lire en ligne),
+Quite Another Story, New York, Lovell Company (réimpr. 2016, 2019) (1re éd. 1890), 257 p. (ISBN 9780526696949, OCLC 17400012, lire en ligne),</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Ingelow</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ingelow</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Stories Told to a Child  (ill. J. Lawson), Londres, Alexander Strahan (réimpr. 1867,...2009, 2017, 2023) (1re éd. 1865), 461 p. (ISBN 9781019664681, OCLC 905308363, lire en ligne),
 Mopsa The Fairy, Londres, Longmans, Green and Co (réimpr. 1919, 1937, 2009, 2016) (1re éd. 1869), 280 p. (ISBN 9781530201631, OCLC 671257265, lire en ligne),
-The Little Wonder-Horn, Londres, Henry S. King &amp; Co. (réimpr. 1877, 2009, 2010) (1re éd. 1872), 389 p. (ISBN 9781165861354, OCLC 63077718, lire en ligne),
-Recueils de poèmes
-A Rhyming Chronicle of Incidents and Feelings, Londres, Brown, Green &amp; Longmans, 1850, nc (OCLC 671256714),
+The Little Wonder-Horn, Londres, Henry S. King &amp; Co. (réimpr. 1877, 2009, 2010) (1re éd. 1872), 389 p. (ISBN 9781165861354, OCLC 63077718, lire en ligne),</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean_Ingelow</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ingelow</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueils de poèmes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A Rhyming Chronicle of Incidents and Feelings, Londres, Brown, Green &amp; Longmans, 1850, nc (OCLC 671256714),
 Poems, Londres, Roberts &amp; Green (réimpr. 1865, ... 1915, 2007, 2015) (1re éd. 1863), 280 p. (ISBN 9781343216273, OCLC 4099522, lire en ligne),
 Songs of Seven, New York, W. Jennings Demorest (réimpr. 1871, 1891, 2016, 2018) (1re éd. 1870), 76 p. (ISBN 9781377351544, OCLC 869741913, lire en ligne),
 The monitions of the unseen and poems of love and childhood, Boston, Roberts and Brothers (réimpr. 2005, 2012, 2015) (1re éd. 1871), 214 p. (ISBN 9781163938300, OCLC 1598329, lire en ligne),
-The Poetical Works of Jean Ingelow, Londres, Longmans &amp; Co. (réimpr. 1920, 2007, 2015, 2023) (1re éd. 1898), 391 p. (ISBN 9781019596722, OCLC 1166411632, lire en ligne),
-Poèmes publiés dans des revues
-« Lady Franklin », New England Journal of Education, vol. 2, no 6,‎ 21 août 1875, p. 73 (1 page) (lire en ligne),
+The Poetical Works of Jean Ingelow, Londres, Longmans &amp; Co. (réimpr. 1920, 2007, 2015, 2023) (1re éd. 1898), 391 p. (ISBN 9781019596722, OCLC 1166411632, lire en ligne),</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean_Ingelow</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ingelow</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Poèmes publiés dans des revues</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>« Lady Franklin », New England Journal of Education, vol. 2, no 6,‎ 21 août 1875, p. 73 (1 page) (lire en ligne),
 « God's Time », New England Journal of Education, vol. 2, no 21,‎ 4 décembre 1975, p. 260 (1 page) (lire en ligne),
 « Seven Times One », New England Journal of Education, vol. 4, no 18,‎ 11 novembre 1876, p. 1 (lire en ligne),
 « Man dwells apart, though not alone », The Journal of Education, vol. 56, no 8,‎ 28 août 1902, p. 135 (1 page) (lire en ligne),
